--- a/lib_tc_bak/com.aislend.OpenBrowser.xlsx
+++ b/lib_tc_bak/com.aislend.OpenBrowser.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="67">
   <si>
     <t>Action</t>
   </si>
@@ -191,23 +191,52 @@
     <t>url verified: http://staging.aislend.com/</t>
   </si>
   <si>
-    <t>action click failed</t>
+    <t>GetURL: https://www.citymarketnorwalk.com/</t>
+  </si>
+  <si>
+    <t>Click: City Marketplace</t>
+  </si>
+  <si>
+    <t>TC_CityMarket_04</t>
+  </si>
+  <si>
+    <t>Verify Broken Link</t>
+  </si>
+  <si>
+    <t>VerifyBrokenLink</t>
+  </si>
+  <si>
+    <t>All links should workd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">action Verify BrokenLink failed: </t>
   </si>
   <si>
     <t>Fail</t>
   </si>
   <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//*[@id="soft-launch-popup"]/p[3]/button"}
+    <t>stale element reference: element is not attached to the page document
   (Session info: chrome=68.0.3440.106)
   (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 29 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Command duration or timeout: 4.53 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/stale_element_reference.html
 Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
 System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
 Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\WINDOWS\TEMP\scoped_dir6392_31650}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 79106bd1747286a03322bc96a9ab5fd6
-*** Element info: {Using=xpath, value=//*[@id="soft-launch-popup"]/p[3]/button}</t>
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir13396_31019}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 96d7b64f5429952609520e28d631bb79</t>
+  </si>
+  <si>
+    <t>Window</t>
+  </si>
+  <si>
+    <t>OpenBrowser: Window</t>
+  </si>
+  <si>
+    <t>VerifyBrokenLink: null</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -818,17 +847,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="A1:F1"/>
     <mergeCell ref="A5:D5"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="A6:D6"/>
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="E4:F4"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="A1:F1"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -836,10 +865,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:O5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C2" workbookViewId="0" zoomScale="60" zoomScaleNormal="60">
-      <selection activeCell="O2" sqref="O2:O4"/>
+    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0" zoomScale="60" zoomScaleNormal="60">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -921,16 +950,18 @@
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="4"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
       <c r="K2" s="4" t="s">
         <v>44</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="M2" s="4" t="s">
         <v>47</v>
@@ -971,7 +1002,7 @@
         <v>33</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M3" s="4" t="s">
         <v>47</v>
@@ -983,7 +1014,7 @@
         <v>13</v>
       </c>
     </row>
-    <row ht="409.5" r="4" spans="1:15">
+    <row ht="30" r="4" spans="1:15">
       <c r="A4" s="4" t="s">
         <v>19</v>
       </c>
@@ -1012,7 +1043,7 @@
         <v>45</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="M4" s="4" t="s">
         <v>47</v>
@@ -1021,6 +1052,41 @@
         <v>48</v>
       </c>
       <c r="O4" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row ht="30" r="5" spans="1:15">
+      <c r="A5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="O5" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1037,10 +1103,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1222,6 +1288,41 @@
         <v>48</v>
       </c>
       <c r="O4" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row ht="409.5" r="5" spans="1:15">
+      <c r="A5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="O5" s="4" t="s">
         <v>13</v>
       </c>
     </row>
